--- a/data/trans_orig/Viv_Temp_insuf-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Viv_Temp_insuf-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7EFD3DC-740B-4EB7-BE94-454610E26A83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8EB3205E-116D-4DEF-8C6B-03E3162AF6E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F7EC9781-3C2B-4C9F-AE17-56A1FC2881C0}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AF994B17-B365-4398-939D-0597959FA599}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -230,211 +230,211 @@
     <t>45,75%</t>
   </si>
   <si>
-    <t>41,98%</t>
-  </si>
-  <si>
-    <t>49,99%</t>
+    <t>41,75%</t>
+  </si>
+  <si>
+    <t>49,63%</t>
   </si>
   <si>
     <t>48,39%</t>
   </si>
   <si>
-    <t>45,48%</t>
-  </si>
-  <si>
-    <t>51,0%</t>
+    <t>45,51%</t>
+  </si>
+  <si>
+    <t>51,23%</t>
   </si>
   <si>
     <t>47,35%</t>
   </si>
   <si>
-    <t>44,97%</t>
-  </si>
-  <si>
-    <t>49,88%</t>
+    <t>45,03%</t>
+  </si>
+  <si>
+    <t>49,72%</t>
   </si>
   <si>
     <t>54,25%</t>
   </si>
   <si>
-    <t>50,01%</t>
-  </si>
-  <si>
-    <t>58,02%</t>
+    <t>50,37%</t>
+  </si>
+  <si>
+    <t>58,25%</t>
   </si>
   <si>
     <t>51,61%</t>
   </si>
   <si>
-    <t>49,0%</t>
-  </si>
-  <si>
-    <t>54,52%</t>
+    <t>48,77%</t>
+  </si>
+  <si>
+    <t>54,49%</t>
   </si>
   <si>
     <t>52,65%</t>
   </si>
   <si>
-    <t>50,12%</t>
-  </si>
-  <si>
-    <t>55,03%</t>
+    <t>50,28%</t>
+  </si>
+  <si>
+    <t>54,97%</t>
   </si>
   <si>
     <t>37,67%</t>
   </si>
   <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>40,25%</t>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>40,37%</t>
   </si>
   <si>
     <t>38,16%</t>
   </si>
   <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>41,13%</t>
   </si>
   <si>
     <t>37,92%</t>
   </si>
   <si>
-    <t>39,9%</t>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>40,11%</t>
   </si>
   <si>
     <t>62,33%</t>
   </si>
   <si>
-    <t>59,75%</t>
-  </si>
-  <si>
-    <t>65,55%</t>
+    <t>59,63%</t>
+  </si>
+  <si>
+    <t>65,61%</t>
   </si>
   <si>
     <t>61,84%</t>
   </si>
   <si>
-    <t>58,98%</t>
-  </si>
-  <si>
-    <t>67,42%</t>
+    <t>58,87%</t>
+  </si>
+  <si>
+    <t>68,46%</t>
   </si>
   <si>
     <t>62,08%</t>
   </si>
   <si>
-    <t>60,1%</t>
+    <t>59,89%</t>
+  </si>
+  <si>
+    <t>65,03%</t>
   </si>
   <si>
     <t>35,63%</t>
   </si>
   <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>39,71%</t>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>39,22%</t>
   </si>
   <si>
     <t>34,32%</t>
   </si>
   <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>37,38%</t>
   </si>
   <si>
     <t>34,95%</t>
   </si>
   <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>37,61%</t>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>37,58%</t>
   </si>
   <si>
     <t>64,37%</t>
   </si>
   <si>
-    <t>60,29%</t>
-  </si>
-  <si>
-    <t>68,09%</t>
+    <t>60,78%</t>
+  </si>
+  <si>
+    <t>68,12%</t>
   </si>
   <si>
     <t>65,68%</t>
   </si>
   <si>
-    <t>62,49%</t>
-  </si>
-  <si>
-    <t>69,1%</t>
+    <t>62,62%</t>
+  </si>
+  <si>
+    <t>68,84%</t>
   </si>
   <si>
     <t>65,05%</t>
   </si>
   <si>
-    <t>62,39%</t>
-  </si>
-  <si>
-    <t>67,39%</t>
+    <t>62,42%</t>
+  </si>
+  <si>
+    <t>67,66%</t>
   </si>
   <si>
     <t>38,56%</t>
   </si>
   <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>40,54%</t>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>40,57%</t>
   </si>
   <si>
     <t>39,69%</t>
   </si>
   <si>
-    <t>35,61%</t>
-  </si>
-  <si>
-    <t>41,68%</t>
+    <t>35,96%</t>
+  </si>
+  <si>
+    <t>41,6%</t>
   </si>
   <si>
     <t>39,16%</t>
   </si>
   <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>40,63%</t>
+    <t>36,78%</t>
   </si>
   <si>
     <t>61,44%</t>
   </si>
   <si>
-    <t>59,46%</t>
-  </si>
-  <si>
-    <t>63,81%</t>
+    <t>59,43%</t>
+  </si>
+  <si>
+    <t>63,83%</t>
   </si>
   <si>
     <t>60,31%</t>
   </si>
   <si>
-    <t>58,32%</t>
-  </si>
-  <si>
-    <t>64,39%</t>
+    <t>58,4%</t>
+  </si>
+  <si>
+    <t>64,04%</t>
   </si>
   <si>
     <t>60,84%</t>
   </si>
   <si>
-    <t>59,37%</t>
-  </si>
-  <si>
-    <t>63,26%</t>
+    <t>63,22%</t>
   </si>
 </sst>
 </file>
@@ -846,7 +846,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13D7B4DC-B168-4432-9381-A610521D063B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6661AEB1-45C4-477E-8E1D-ABA84705E1D8}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1597,7 +1597,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4561A34-20B0-453F-B688-97C98190E20B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0373085-7C16-4AEA-A7E3-5C0BD0FC669D}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2348,7 +2348,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BDFDF64-38ED-4CCB-9680-BEF6A7AB9E67}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6B30E81-F214-4D48-9125-947F9D1A3FBE}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3099,7 +3099,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECB578F6-3388-4A66-914B-07AAC5F98C76}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4CE4E2C-27C4-4E2C-8861-0B3BDB8EB424}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3405,16 +3405,16 @@
         <v>1843</v>
       </c>
       <c r="N7" s="7">
-        <v>1672060</v>
+        <v>1672061</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>86</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3429,13 +3429,13 @@
         <v>1347002</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H8" s="7">
         <v>1840</v>
@@ -3444,13 +3444,13 @@
         <v>1390732</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M8" s="7">
         <v>3068</v>
@@ -3459,13 +3459,13 @@
         <v>2737734</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3507,7 +3507,7 @@
         <v>4911</v>
       </c>
       <c r="N9" s="7">
-        <v>4409794</v>
+        <v>4409795</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -3533,13 +3533,13 @@
         <v>239402</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H10" s="7">
         <v>336</v>
@@ -3548,13 +3548,13 @@
         <v>244414</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M10" s="7">
         <v>579</v>
@@ -3563,13 +3563,13 @@
         <v>483816</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3584,13 +3584,13 @@
         <v>432586</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H11" s="7">
         <v>665</v>
@@ -3599,13 +3599,13 @@
         <v>467814</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M11" s="7">
         <v>1101</v>
@@ -3614,13 +3614,13 @@
         <v>900400</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3688,13 +3688,13 @@
         <v>1301145</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H13" s="7">
         <v>2065</v>
@@ -3703,13 +3703,13 @@
         <v>1507052</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M13" s="7">
         <v>3383</v>
@@ -3718,13 +3718,13 @@
         <v>2808198</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3739,13 +3739,13 @@
         <v>2073421</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H14" s="7">
         <v>3283</v>
@@ -3754,25 +3754,25 @@
         <v>2289978</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M14" s="7">
         <v>5326</v>
       </c>
       <c r="N14" s="7">
-        <v>4363399</v>
+        <v>4363398</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>131</v>
@@ -3817,7 +3817,7 @@
         <v>8709</v>
       </c>
       <c r="N15" s="7">
-        <v>7171597</v>
+        <v>7171596</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>

--- a/data/trans_orig/Viv_Temp_insuf-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Viv_Temp_insuf-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8EB3205E-116D-4DEF-8C6B-03E3162AF6E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{52019AD7-07F6-4FD6-8BEE-04E44C36BACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AF994B17-B365-4398-939D-0597959FA599}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{190F87DA-C19E-4B30-ADEE-5392B31E47F2}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -191,7 +191,7 @@
     <t>99,77%</t>
   </si>
   <si>
-    <t>Hogares con temperatura insuficiente en 2015 (Tasa respuesta: 100,0%)</t>
+    <t>Hogares con temperatura insuficiente en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>0,25%</t>
@@ -846,7 +846,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6661AEB1-45C4-477E-8E1D-ABA84705E1D8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6431422D-5FBE-4DA0-A087-D70357E372E8}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1173,7 +1173,7 @@
         <v>1649</v>
       </c>
       <c r="D8" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
@@ -1224,7 +1224,7 @@
         <v>1649</v>
       </c>
       <c r="D9" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>19</v>
@@ -1483,7 +1483,7 @@
         <v>3214</v>
       </c>
       <c r="D14" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
@@ -1513,7 +1513,7 @@
         <v>6511</v>
       </c>
       <c r="N14" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>17</v>
@@ -1534,7 +1534,7 @@
         <v>3214</v>
       </c>
       <c r="D15" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -1564,7 +1564,7 @@
         <v>6511</v>
       </c>
       <c r="N15" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -1597,7 +1597,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0373085-7C16-4AEA-A7E3-5C0BD0FC669D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A2B74CB-91C7-4E6A-9565-2032690AC138}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2348,7 +2348,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6B30E81-F214-4D48-9125-947F9D1A3FBE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA762A1F-6DBC-4AB3-96EF-D5DFA4377716}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3099,7 +3099,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4CE4E2C-27C4-4E2C-8861-0B3BDB8EB424}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5ED585A-D10D-4614-BE22-5E237708490D}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/Viv_Temp_insuf-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Viv_Temp_insuf-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{52019AD7-07F6-4FD6-8BEE-04E44C36BACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{148F42CF-606E-4A87-9E77-DD2A7F29AA7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{190F87DA-C19E-4B30-ADEE-5392B31E47F2}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A5290D5A-A947-4E8D-8241-9F94C1CD257A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="132">
   <si>
-    <t>Hogares con temperatura insuficiente en 2007 (Tasa respuesta: 100,0%)</t>
+    <t>Población con temperatura insuficiente en la vivienda en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -152,7 +152,7 @@
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Hogares con temperatura insuficiente en 2012 (Tasa respuesta: 100,0%)</t>
+    <t>Población con temperatura insuficiente en la vivienda en 2012 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>0,21%</t>
@@ -191,7 +191,7 @@
     <t>99,77%</t>
   </si>
   <si>
-    <t>Hogares con temperatura insuficiente en 2016 (Tasa respuesta: 100,0%)</t>
+    <t>Población con temperatura insuficiente en la vivienda en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>0,25%</t>
@@ -224,217 +224,217 @@
     <t>99,81%</t>
   </si>
   <si>
-    <t>Hogares con temperatura insuficiente en 2023 (Tasa respuesta: 99,91%)</t>
+    <t>Población con temperatura insuficiente en la vivienda en 2023 (Tasa respuesta: 99,91%)</t>
   </si>
   <si>
     <t>45,75%</t>
   </si>
   <si>
-    <t>41,75%</t>
-  </si>
-  <si>
-    <t>49,63%</t>
+    <t>41,98%</t>
+  </si>
+  <si>
+    <t>49,99%</t>
   </si>
   <si>
     <t>48,39%</t>
   </si>
   <si>
-    <t>45,51%</t>
-  </si>
-  <si>
-    <t>51,23%</t>
+    <t>45,48%</t>
+  </si>
+  <si>
+    <t>51,0%</t>
   </si>
   <si>
     <t>47,35%</t>
   </si>
   <si>
-    <t>45,03%</t>
-  </si>
-  <si>
-    <t>49,72%</t>
+    <t>44,97%</t>
+  </si>
+  <si>
+    <t>49,88%</t>
   </si>
   <si>
     <t>54,25%</t>
   </si>
   <si>
-    <t>50,37%</t>
-  </si>
-  <si>
-    <t>58,25%</t>
+    <t>50,01%</t>
+  </si>
+  <si>
+    <t>58,02%</t>
   </si>
   <si>
     <t>51,61%</t>
   </si>
   <si>
-    <t>48,77%</t>
-  </si>
-  <si>
-    <t>54,49%</t>
+    <t>49,0%</t>
+  </si>
+  <si>
+    <t>54,52%</t>
   </si>
   <si>
     <t>52,65%</t>
   </si>
   <si>
-    <t>50,28%</t>
-  </si>
-  <si>
-    <t>54,97%</t>
+    <t>50,12%</t>
+  </si>
+  <si>
+    <t>55,03%</t>
   </si>
   <si>
     <t>37,67%</t>
   </si>
   <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>40,37%</t>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>40,25%</t>
   </si>
   <si>
     <t>38,16%</t>
   </si>
   <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>41,13%</t>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>41,02%</t>
   </si>
   <si>
     <t>37,92%</t>
   </si>
   <si>
-    <t>34,97%</t>
-  </si>
-  <si>
-    <t>40,11%</t>
+    <t>39,9%</t>
   </si>
   <si>
     <t>62,33%</t>
   </si>
   <si>
-    <t>59,63%</t>
-  </si>
-  <si>
-    <t>65,61%</t>
+    <t>59,75%</t>
+  </si>
+  <si>
+    <t>65,55%</t>
   </si>
   <si>
     <t>61,84%</t>
   </si>
   <si>
-    <t>58,87%</t>
-  </si>
-  <si>
-    <t>68,46%</t>
+    <t>58,98%</t>
+  </si>
+  <si>
+    <t>67,42%</t>
   </si>
   <si>
     <t>62,08%</t>
   </si>
   <si>
-    <t>59,89%</t>
-  </si>
-  <si>
-    <t>65,03%</t>
+    <t>60,1%</t>
   </si>
   <si>
     <t>35,63%</t>
   </si>
   <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>39,22%</t>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>39,71%</t>
   </si>
   <si>
     <t>34,32%</t>
   </si>
   <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>37,38%</t>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
   </si>
   <si>
     <t>34,95%</t>
   </si>
   <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>37,61%</t>
   </si>
   <si>
     <t>64,37%</t>
   </si>
   <si>
-    <t>60,78%</t>
-  </si>
-  <si>
-    <t>68,12%</t>
+    <t>60,29%</t>
+  </si>
+  <si>
+    <t>68,09%</t>
   </si>
   <si>
     <t>65,68%</t>
   </si>
   <si>
-    <t>62,62%</t>
-  </si>
-  <si>
-    <t>68,84%</t>
+    <t>62,49%</t>
+  </si>
+  <si>
+    <t>69,1%</t>
   </si>
   <si>
     <t>65,05%</t>
   </si>
   <si>
-    <t>62,42%</t>
-  </si>
-  <si>
-    <t>67,66%</t>
+    <t>62,39%</t>
+  </si>
+  <si>
+    <t>67,39%</t>
   </si>
   <si>
     <t>38,56%</t>
   </si>
   <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>40,57%</t>
+    <t>36,19%</t>
+  </si>
+  <si>
+    <t>40,54%</t>
   </si>
   <si>
     <t>39,69%</t>
   </si>
   <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>41,6%</t>
+    <t>35,61%</t>
+  </si>
+  <si>
+    <t>41,68%</t>
   </si>
   <si>
     <t>39,16%</t>
   </si>
   <si>
-    <t>36,78%</t>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>40,63%</t>
   </si>
   <si>
     <t>61,44%</t>
   </si>
   <si>
-    <t>59,43%</t>
-  </si>
-  <si>
-    <t>63,83%</t>
+    <t>59,46%</t>
+  </si>
+  <si>
+    <t>63,81%</t>
   </si>
   <si>
     <t>60,31%</t>
   </si>
   <si>
-    <t>58,4%</t>
-  </si>
-  <si>
-    <t>64,04%</t>
+    <t>58,32%</t>
+  </si>
+  <si>
+    <t>64,39%</t>
   </si>
   <si>
     <t>60,84%</t>
   </si>
   <si>
-    <t>63,22%</t>
+    <t>59,37%</t>
+  </si>
+  <si>
+    <t>63,26%</t>
   </si>
 </sst>
 </file>
@@ -846,7 +846,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6431422D-5FBE-4DA0-A087-D70357E372E8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FB78143-8546-4DE9-9332-9D66F27C3B1A}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1173,7 +1173,7 @@
         <v>1649</v>
       </c>
       <c r="D8" s="7">
-        <v>1693413</v>
+        <v>1693412</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
@@ -1224,7 +1224,7 @@
         <v>1649</v>
       </c>
       <c r="D9" s="7">
-        <v>1693413</v>
+        <v>1693412</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>19</v>
@@ -1483,7 +1483,7 @@
         <v>3214</v>
       </c>
       <c r="D14" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
@@ -1513,7 +1513,7 @@
         <v>6511</v>
       </c>
       <c r="N14" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>17</v>
@@ -1534,7 +1534,7 @@
         <v>3214</v>
       </c>
       <c r="D15" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -1564,7 +1564,7 @@
         <v>6511</v>
       </c>
       <c r="N15" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -1597,7 +1597,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A2B74CB-91C7-4E6A-9565-2032690AC138}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01CB8C27-E29E-48D6-A468-D6E3A3A8E497}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2348,7 +2348,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA762A1F-6DBC-4AB3-96EF-D5DFA4377716}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CA2325D-4BC9-457A-9E73-0856322F1843}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3099,7 +3099,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5ED585A-D10D-4614-BE22-5E237708490D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC16CF94-8177-4977-AC39-8F707B776595}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3405,16 +3405,16 @@
         <v>1843</v>
       </c>
       <c r="N7" s="7">
-        <v>1672061</v>
+        <v>1672060</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>86</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3429,13 +3429,13 @@
         <v>1347002</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H8" s="7">
         <v>1840</v>
@@ -3444,13 +3444,13 @@
         <v>1390732</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M8" s="7">
         <v>3068</v>
@@ -3459,13 +3459,13 @@
         <v>2737734</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>96</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3507,7 +3507,7 @@
         <v>4911</v>
       </c>
       <c r="N9" s="7">
-        <v>4409795</v>
+        <v>4409794</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -3533,13 +3533,13 @@
         <v>239402</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H10" s="7">
         <v>336</v>
@@ -3548,13 +3548,13 @@
         <v>244414</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M10" s="7">
         <v>579</v>
@@ -3563,13 +3563,13 @@
         <v>483816</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3584,13 +3584,13 @@
         <v>432586</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H11" s="7">
         <v>665</v>
@@ -3599,13 +3599,13 @@
         <v>467814</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M11" s="7">
         <v>1101</v>
@@ -3614,13 +3614,13 @@
         <v>900400</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3688,13 +3688,13 @@
         <v>1301145</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H13" s="7">
         <v>2065</v>
@@ -3703,13 +3703,13 @@
         <v>1507052</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M13" s="7">
         <v>3383</v>
@@ -3718,13 +3718,13 @@
         <v>2808198</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3739,13 +3739,13 @@
         <v>2073421</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="H14" s="7">
         <v>3283</v>
@@ -3754,25 +3754,25 @@
         <v>2289978</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M14" s="7">
         <v>5326</v>
       </c>
       <c r="N14" s="7">
-        <v>4363398</v>
+        <v>4363399</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>131</v>
@@ -3817,7 +3817,7 @@
         <v>8709</v>
       </c>
       <c r="N15" s="7">
-        <v>7171596</v>
+        <v>7171597</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>

--- a/data/trans_orig/Viv_Temp_insuf-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Viv_Temp_insuf-Estudios-trans_orig.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{148F42CF-606E-4A87-9E77-DD2A7F29AA7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C096761-CC35-4307-916E-4A35C133D0E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A5290D5A-A947-4E8D-8241-9F94C1CD257A}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{E5B46539-4F3C-404B-BAEE-F357E3A501F6}"/>
   </bookViews>
   <sheets>
-    <sheet name="2007" sheetId="2" r:id="rId1"/>
-    <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2016" sheetId="4" r:id="rId3"/>
-    <sheet name="2023" sheetId="5" r:id="rId4"/>
+    <sheet name="2012" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
+    <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,9 +38,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="132">
-  <si>
-    <t>Población con temperatura insuficiente en la vivienda en 2007 (Tasa respuesta: 100,0%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="228">
+  <si>
+    <t>Población con temperatura insuficiente, en verano o en invierno, en la vivienda en 2012 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -74,367 +73,655 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
     <t>Secundarios</t>
   </si>
   <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>99,94%</t>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
   </si>
   <si>
     <t>Universitarios</t>
   </si>
   <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>99,97%</t>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población con temperatura insuficiente en la vivienda en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>Población con temperatura insuficiente en la vivienda en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>99,95%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>Población con temperatura insuficiente en la vivienda en 2023 (Tasa respuesta: 99,91%)</t>
-  </si>
-  <si>
-    <t>45,75%</t>
-  </si>
-  <si>
-    <t>41,98%</t>
-  </si>
-  <si>
-    <t>49,99%</t>
-  </si>
-  <si>
-    <t>48,39%</t>
-  </si>
-  <si>
-    <t>45,48%</t>
-  </si>
-  <si>
-    <t>51,0%</t>
-  </si>
-  <si>
-    <t>47,35%</t>
-  </si>
-  <si>
-    <t>44,97%</t>
-  </si>
-  <si>
-    <t>49,88%</t>
-  </si>
-  <si>
-    <t>54,25%</t>
-  </si>
-  <si>
-    <t>50,01%</t>
-  </si>
-  <si>
-    <t>58,02%</t>
-  </si>
-  <si>
-    <t>51,61%</t>
-  </si>
-  <si>
-    <t>49,0%</t>
-  </si>
-  <si>
-    <t>54,52%</t>
-  </si>
-  <si>
-    <t>52,65%</t>
-  </si>
-  <si>
-    <t>50,12%</t>
-  </si>
-  <si>
-    <t>55,03%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>40,25%</t>
-  </si>
-  <si>
-    <t>38,16%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>37,92%</t>
-  </si>
-  <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>62,33%</t>
-  </si>
-  <si>
-    <t>59,75%</t>
-  </si>
-  <si>
-    <t>65,55%</t>
-  </si>
-  <si>
-    <t>61,84%</t>
-  </si>
-  <si>
-    <t>58,98%</t>
-  </si>
-  <si>
-    <t>67,42%</t>
-  </si>
-  <si>
-    <t>62,08%</t>
-  </si>
-  <si>
-    <t>60,1%</t>
-  </si>
-  <si>
-    <t>35,63%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>39,71%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>37,61%</t>
-  </si>
-  <si>
-    <t>64,37%</t>
-  </si>
-  <si>
-    <t>60,29%</t>
-  </si>
-  <si>
-    <t>68,09%</t>
-  </si>
-  <si>
-    <t>65,68%</t>
-  </si>
-  <si>
-    <t>62,49%</t>
-  </si>
-  <si>
-    <t>69,1%</t>
-  </si>
-  <si>
-    <t>65,05%</t>
-  </si>
-  <si>
-    <t>62,39%</t>
-  </si>
-  <si>
-    <t>67,39%</t>
-  </si>
-  <si>
-    <t>38,56%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>40,54%</t>
-  </si>
-  <si>
-    <t>39,69%</t>
-  </si>
-  <si>
-    <t>35,61%</t>
-  </si>
-  <si>
-    <t>41,68%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>40,63%</t>
-  </si>
-  <si>
-    <t>61,44%</t>
-  </si>
-  <si>
-    <t>59,46%</t>
-  </si>
-  <si>
-    <t>63,81%</t>
-  </si>
-  <si>
-    <t>60,31%</t>
-  </si>
-  <si>
-    <t>58,32%</t>
-  </si>
-  <si>
-    <t>64,39%</t>
-  </si>
-  <si>
-    <t>60,84%</t>
-  </si>
-  <si>
-    <t>59,37%</t>
-  </si>
-  <si>
-    <t>63,26%</t>
+    <t>Población con temperatura insuficiente, en verano o en invierno, en la vivienda en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>78,13%</t>
+  </si>
+  <si>
+    <t>75,06%</t>
+  </si>
+  <si>
+    <t>80,94%</t>
+  </si>
+  <si>
+    <t>79,21%</t>
+  </si>
+  <si>
+    <t>76,65%</t>
+  </si>
+  <si>
+    <t>81,7%</t>
+  </si>
+  <si>
+    <t>78,74%</t>
+  </si>
+  <si>
+    <t>76,71%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>84,64%</t>
+  </si>
+  <si>
+    <t>82,88%</t>
+  </si>
+  <si>
+    <t>86,18%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>85,87%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
+  </si>
+  <si>
+    <t>87,15%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>85,46%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>86,7%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>84,02%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
+  </si>
+  <si>
+    <t>Población con temperatura insuficiente, en verano o en invierno, en la vivienda en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>86,14%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>87,47%</t>
+  </si>
+  <si>
+    <t>85,73%</t>
+  </si>
+  <si>
+    <t>88,86%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>87,8%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>87,36%</t>
+  </si>
+  <si>
+    <t>77,83%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>83,51%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>81,61%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>85,6%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
   </si>
 </sst>
 </file>
@@ -846,7 +1133,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FB78143-8546-4DE9-9332-9D66F27C3B1A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CC5C543-7E58-4686-A0D9-17A36E8F9D58}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -964,10 +1251,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>50331</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -979,85 +1266,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>75781</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>126113</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>1038</v>
+        <v>860</v>
       </c>
       <c r="D5" s="7">
-        <v>1031723</v>
+        <v>924312</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>1291</v>
+        <v>1176</v>
       </c>
       <c r="I5" s="7">
-        <v>1315113</v>
+        <v>1262016</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>2329</v>
+        <v>2036</v>
       </c>
       <c r="N5" s="7">
-        <v>2346836</v>
+        <v>2186327</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1066,153 +1353,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>1038</v>
+        <v>908</v>
       </c>
       <c r="D6" s="7">
-        <v>1031723</v>
+        <v>974643</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>1291</v>
+        <v>1247</v>
       </c>
       <c r="I6" s="7">
-        <v>1315113</v>
+        <v>1337797</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>2329</v>
+        <v>2155</v>
       </c>
       <c r="N6" s="7">
-        <v>2346836</v>
+        <v>2312440</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>79885</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>73407</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>153292</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>1649</v>
+        <v>1784</v>
       </c>
       <c r="D8" s="7">
-        <v>1693412</v>
+        <v>1884072</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>1554</v>
+        <v>1569</v>
       </c>
       <c r="I8" s="7">
-        <v>1587673</v>
+        <v>1684396</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>3203</v>
+        <v>3353</v>
       </c>
       <c r="N8" s="7">
-        <v>3281086</v>
+        <v>3568468</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1221,153 +1508,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>1649</v>
+        <v>1856</v>
       </c>
       <c r="D9" s="7">
-        <v>1693412</v>
+        <v>1963957</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>1554</v>
+        <v>1635</v>
       </c>
       <c r="I9" s="7">
-        <v>1587673</v>
+        <v>1757803</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>3203</v>
+        <v>3491</v>
       </c>
       <c r="N9" s="7">
-        <v>3281086</v>
+        <v>3721760</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>11899</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>10387</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N10" s="7">
-        <v>0</v>
+        <v>22286</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>527</v>
+        <v>427</v>
       </c>
       <c r="D11" s="7">
-        <v>551408</v>
+        <v>469282</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>452</v>
+        <v>403</v>
       </c>
       <c r="I11" s="7">
-        <v>476412</v>
+        <v>448244</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>979</v>
+        <v>830</v>
       </c>
       <c r="N11" s="7">
-        <v>1027820</v>
+        <v>917527</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1376,49 +1663,49 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>527</v>
+        <v>438</v>
       </c>
       <c r="D12" s="7">
-        <v>551408</v>
+        <v>481181</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>452</v>
+        <v>412</v>
       </c>
       <c r="I12" s="7">
-        <v>476412</v>
+        <v>458631</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>979</v>
+        <v>850</v>
       </c>
       <c r="N12" s="7">
-        <v>1027820</v>
+        <v>939813</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1429,100 +1716,100 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>142116</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>146</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>159575</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
-        <v>0</v>
+        <v>277</v>
       </c>
       <c r="N13" s="7">
-        <v>0</v>
+        <v>301691</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>3214</v>
+        <v>3071</v>
       </c>
       <c r="D14" s="7">
-        <v>3276544</v>
+        <v>3277666</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
-        <v>3297</v>
+        <v>3148</v>
       </c>
       <c r="I14" s="7">
-        <v>3379198</v>
+        <v>3394655</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
-        <v>6511</v>
+        <v>6219</v>
       </c>
       <c r="N14" s="7">
-        <v>6655740</v>
+        <v>6672321</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>19</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1531,54 +1818,54 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>3214</v>
+        <v>3202</v>
       </c>
       <c r="D15" s="7">
-        <v>3276544</v>
+        <v>3419782</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>3297</v>
+        <v>3294</v>
       </c>
       <c r="I15" s="7">
-        <v>3379198</v>
+        <v>3554230</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>6511</v>
+        <v>6496</v>
       </c>
       <c r="N15" s="7">
-        <v>6655740</v>
+        <v>6974012</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1597,7 +1884,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01CB8C27-E29E-48D6-A468-D6E3A3A8E497}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D58E2523-7AC5-4C21-9ED2-7E56E1829072}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1614,7 +1901,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1715,100 +2002,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>164978</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>189</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>206778</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>349</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>371755</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>95</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>39</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>908</v>
+        <v>602</v>
       </c>
       <c r="D5" s="7">
-        <v>974643</v>
+        <v>589369</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>98</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="H5" s="7">
-        <v>1247</v>
+        <v>703</v>
       </c>
       <c r="I5" s="7">
-        <v>1337796</v>
+        <v>787882</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>17</v>
+        <v>101</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>19</v>
+        <v>103</v>
       </c>
       <c r="M5" s="7">
-        <v>2155</v>
+        <v>1305</v>
       </c>
       <c r="N5" s="7">
-        <v>2312440</v>
+        <v>1377252</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>17</v>
+        <v>104</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>41</v>
+        <v>105</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>19</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1817,153 +2104,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>908</v>
+        <v>762</v>
       </c>
       <c r="D6" s="7">
-        <v>974643</v>
+        <v>754347</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>1247</v>
+        <v>892</v>
       </c>
       <c r="I6" s="7">
-        <v>1337796</v>
+        <v>994660</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>2155</v>
+        <v>1654</v>
       </c>
       <c r="N6" s="7">
-        <v>2312440</v>
+        <v>1749007</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>283</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>318894</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>107</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>42</v>
+        <v>109</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>239</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>246848</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>23</v>
+        <v>112</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>522</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>565743</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>11</v>
+        <v>113</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>12</v>
+        <v>114</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>24</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>1856</v>
+        <v>1669</v>
       </c>
       <c r="D8" s="7">
-        <v>1963957</v>
+        <v>1757491</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>17</v>
+        <v>116</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>43</v>
+        <v>117</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>19</v>
+        <v>118</v>
       </c>
       <c r="H8" s="7">
-        <v>1635</v>
+        <v>1669</v>
       </c>
       <c r="I8" s="7">
-        <v>1757803</v>
+        <v>1741452</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>17</v>
+        <v>119</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>19</v>
+        <v>121</v>
       </c>
       <c r="M8" s="7">
-        <v>3491</v>
+        <v>3338</v>
       </c>
       <c r="N8" s="7">
-        <v>3721760</v>
+        <v>3498942</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>17</v>
+        <v>122</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>26</v>
+        <v>123</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>19</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1972,153 +2259,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>1856</v>
+        <v>1952</v>
       </c>
       <c r="D9" s="7">
-        <v>1963957</v>
+        <v>2076385</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>1635</v>
+        <v>1908</v>
       </c>
       <c r="I9" s="7">
-        <v>1757803</v>
+        <v>1988300</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>3491</v>
+        <v>3860</v>
       </c>
       <c r="N9" s="7">
-        <v>3721760</v>
+        <v>4064685</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>48650</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>125</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>44</v>
+        <v>127</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>57798</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>128</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>129</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>45</v>
+        <v>130</v>
       </c>
       <c r="M10" s="7">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="N10" s="7">
-        <v>0</v>
+        <v>106448</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>11</v>
+        <v>131</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>12</v>
+        <v>132</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>46</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>438</v>
+        <v>458</v>
       </c>
       <c r="D11" s="7">
-        <v>481181</v>
+        <v>498236</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>17</v>
+        <v>134</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>47</v>
+        <v>135</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>19</v>
+        <v>136</v>
       </c>
       <c r="H11" s="7">
-        <v>412</v>
+        <v>471</v>
       </c>
       <c r="I11" s="7">
-        <v>458631</v>
+        <v>491342</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>17</v>
+        <v>137</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>48</v>
+        <v>138</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>19</v>
+        <v>139</v>
       </c>
       <c r="M11" s="7">
-        <v>850</v>
+        <v>929</v>
       </c>
       <c r="N11" s="7">
-        <v>939812</v>
+        <v>989579</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>17</v>
+        <v>140</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>49</v>
+        <v>141</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>19</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2127,49 +2414,49 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>438</v>
+        <v>501</v>
       </c>
       <c r="D12" s="7">
-        <v>481181</v>
+        <v>546886</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>412</v>
+        <v>526</v>
       </c>
       <c r="I12" s="7">
-        <v>458631</v>
+        <v>549140</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>850</v>
+        <v>1027</v>
       </c>
       <c r="N12" s="7">
-        <v>939812</v>
+        <v>1096027</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2180,100 +2467,100 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>486</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>532522</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>11</v>
+        <v>143</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>12</v>
+        <v>144</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>24</v>
+        <v>109</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>483</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>511424</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>11</v>
+        <v>145</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>12</v>
+        <v>146</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>24</v>
+        <v>147</v>
       </c>
       <c r="M13" s="7">
-        <v>0</v>
+        <v>969</v>
       </c>
       <c r="N13" s="7">
-        <v>0</v>
+        <v>1043946</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>11</v>
+        <v>148</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>12</v>
+        <v>149</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>34</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>3202</v>
+        <v>2729</v>
       </c>
       <c r="D14" s="7">
-        <v>3419782</v>
+        <v>2845096</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>17</v>
+        <v>151</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>26</v>
+        <v>117</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>19</v>
+        <v>152</v>
       </c>
       <c r="H14" s="7">
-        <v>3294</v>
+        <v>2843</v>
       </c>
       <c r="I14" s="7">
-        <v>3554230</v>
+        <v>3020676</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>17</v>
+        <v>153</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>26</v>
+        <v>154</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>19</v>
+        <v>155</v>
       </c>
       <c r="M14" s="7">
-        <v>6496</v>
+        <v>5572</v>
       </c>
       <c r="N14" s="7">
-        <v>6974012</v>
+        <v>5865772</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>17</v>
+        <v>156</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>35</v>
+        <v>157</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>19</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2282,54 +2569,54 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>3202</v>
+        <v>3215</v>
       </c>
       <c r="D15" s="7">
-        <v>3419782</v>
+        <v>3377618</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>3294</v>
+        <v>3326</v>
       </c>
       <c r="I15" s="7">
-        <v>3554230</v>
+        <v>3532100</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>6496</v>
+        <v>6541</v>
       </c>
       <c r="N15" s="7">
-        <v>6974012</v>
+        <v>6909718</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2348,7 +2635,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CA2325D-4BC9-457A-9E73-0856322F1843}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CBFB892-FCA3-4B52-8159-B6FEC84773FE}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2365,7 +2652,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>50</v>
+        <v>159</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2466,100 +2753,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>68152</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>160</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>161</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>51</v>
+        <v>162</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>166</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>91061</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>163</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>164</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>52</v>
+        <v>165</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>248</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>159213</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>166</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>167</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>23</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>762</v>
+        <v>609</v>
       </c>
       <c r="D5" s="7">
-        <v>754347</v>
+        <v>446786</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>169</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>53</v>
+        <v>170</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>19</v>
+        <v>171</v>
       </c>
       <c r="H5" s="7">
-        <v>892</v>
+        <v>1261</v>
       </c>
       <c r="I5" s="7">
-        <v>994660</v>
+        <v>664447</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>17</v>
+        <v>172</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>54</v>
+        <v>173</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>19</v>
+        <v>174</v>
       </c>
       <c r="M5" s="7">
-        <v>1654</v>
+        <v>1870</v>
       </c>
       <c r="N5" s="7">
-        <v>1749007</v>
+        <v>1111233</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>17</v>
+        <v>175</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>25</v>
+        <v>176</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>19</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2568,153 +2855,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>762</v>
+        <v>691</v>
       </c>
       <c r="D6" s="7">
-        <v>754347</v>
+        <v>514938</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>892</v>
+        <v>1427</v>
       </c>
       <c r="I6" s="7">
-        <v>994660</v>
+        <v>755508</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>1654</v>
+        <v>2118</v>
       </c>
       <c r="N6" s="7">
-        <v>1749007</v>
+        <v>1270446</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>222</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>233623</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>178</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>12</v>
+        <v>179</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>42</v>
+        <v>180</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>344</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>282914</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>11</v>
+        <v>181</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>12</v>
+        <v>182</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>42</v>
+        <v>183</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>566</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>516537</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>11</v>
+        <v>184</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>12</v>
+        <v>185</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>55</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>1952</v>
+        <v>1770</v>
       </c>
       <c r="D8" s="7">
-        <v>2076385</v>
+        <v>2056704</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>17</v>
+        <v>187</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>43</v>
+        <v>188</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>19</v>
+        <v>189</v>
       </c>
       <c r="H8" s="7">
-        <v>1908</v>
+        <v>2577</v>
       </c>
       <c r="I8" s="7">
-        <v>1988300</v>
+        <v>1954909</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>17</v>
+        <v>190</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>43</v>
+        <v>191</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>19</v>
+        <v>192</v>
       </c>
       <c r="M8" s="7">
-        <v>3860</v>
+        <v>4347</v>
       </c>
       <c r="N8" s="7">
-        <v>4064685</v>
+        <v>4011613</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>17</v>
+        <v>193</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>56</v>
+        <v>194</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>19</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2723,153 +3010,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>1952</v>
+        <v>1992</v>
       </c>
       <c r="D9" s="7">
-        <v>2076385</v>
+        <v>2290327</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>1908</v>
+        <v>2921</v>
       </c>
       <c r="I9" s="7">
-        <v>1988300</v>
+        <v>2237823</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>3860</v>
+        <v>4913</v>
       </c>
       <c r="N9" s="7">
-        <v>4064685</v>
+        <v>4528150</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>57579</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>125</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>196</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>57</v>
+        <v>197</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>69265</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>161</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>198</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>28</v>
+        <v>199</v>
       </c>
       <c r="M10" s="7">
-        <v>0</v>
+        <v>163</v>
       </c>
       <c r="N10" s="7">
-        <v>0</v>
+        <v>126844</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>11</v>
+        <v>200</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>12</v>
+        <v>201</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>501</v>
+        <v>619</v>
       </c>
       <c r="D11" s="7">
-        <v>546886</v>
+        <v>589044</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>17</v>
+        <v>134</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>203</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>19</v>
+        <v>204</v>
       </c>
       <c r="H11" s="7">
-        <v>526</v>
+        <v>903</v>
       </c>
       <c r="I11" s="7">
-        <v>549140</v>
+        <v>591198</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>17</v>
+        <v>171</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>31</v>
+        <v>205</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>19</v>
+        <v>206</v>
       </c>
       <c r="M11" s="7">
-        <v>1027</v>
+        <v>1522</v>
       </c>
       <c r="N11" s="7">
-        <v>1096026</v>
+        <v>1180242</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>17</v>
+        <v>207</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>60</v>
+        <v>208</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>19</v>
+        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2878,49 +3165,49 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>501</v>
+        <v>681</v>
       </c>
       <c r="D12" s="7">
-        <v>546886</v>
+        <v>646623</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>526</v>
+        <v>1004</v>
       </c>
       <c r="I12" s="7">
-        <v>549140</v>
+        <v>660463</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1027</v>
+        <v>1685</v>
       </c>
       <c r="N12" s="7">
-        <v>1096026</v>
+        <v>1307086</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2931,100 +3218,100 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>366</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>359354</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>11</v>
+        <v>210</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>12</v>
+        <v>211</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>24</v>
+        <v>212</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>611</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>443240</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>11</v>
+        <v>213</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>12</v>
+        <v>214</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>24</v>
+        <v>215</v>
       </c>
       <c r="M13" s="7">
-        <v>0</v>
+        <v>977</v>
       </c>
       <c r="N13" s="7">
-        <v>0</v>
+        <v>802593</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>11</v>
+        <v>216</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>12</v>
+        <v>217</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>34</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>3215</v>
+        <v>2998</v>
       </c>
       <c r="D14" s="7">
-        <v>3377618</v>
+        <v>3092535</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>17</v>
+        <v>219</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>26</v>
+        <v>220</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>19</v>
+        <v>221</v>
       </c>
       <c r="H14" s="7">
-        <v>3326</v>
+        <v>4741</v>
       </c>
       <c r="I14" s="7">
-        <v>3532100</v>
+        <v>3210554</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>17</v>
+        <v>222</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>26</v>
+        <v>223</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>19</v>
+        <v>224</v>
       </c>
       <c r="M14" s="7">
-        <v>6541</v>
+        <v>7739</v>
       </c>
       <c r="N14" s="7">
-        <v>6909718</v>
+        <v>6303090</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>17</v>
+        <v>225</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>35</v>
+        <v>226</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>19</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3033,805 +3320,54 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>3215</v>
+        <v>3364</v>
       </c>
       <c r="D15" s="7">
-        <v>3377618</v>
+        <v>3451889</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>3326</v>
+        <v>5352</v>
       </c>
       <c r="I15" s="7">
-        <v>3532100</v>
+        <v>3653794</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>6541</v>
+        <v>8716</v>
       </c>
       <c r="N15" s="7">
-        <v>6909718</v>
+        <v>7105683</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A9"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC16CF94-8177-4977-AC39-8F707B776595}">
-  <dimension ref="A1:Q16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" sqref="A1:B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="17" width="14" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="7">
-        <v>312</v>
-      </c>
-      <c r="D4" s="7">
-        <v>247801</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="H4" s="7">
-        <v>649</v>
-      </c>
-      <c r="I4" s="7">
-        <v>404520</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="M4" s="7">
-        <v>961</v>
-      </c>
-      <c r="N4" s="7">
-        <v>652321</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="7">
-        <v>379</v>
-      </c>
-      <c r="D5" s="7">
-        <v>293833</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="H5" s="7">
-        <v>778</v>
-      </c>
-      <c r="I5" s="7">
-        <v>431433</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="M5" s="7">
-        <v>1157</v>
-      </c>
-      <c r="N5" s="7">
-        <v>725265</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="7">
-        <v>691</v>
-      </c>
-      <c r="D6" s="7">
-        <v>541634</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="7">
-        <v>1427</v>
-      </c>
-      <c r="I6" s="7">
-        <v>835953</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M6" s="7">
-        <v>2118</v>
-      </c>
-      <c r="N6" s="7">
-        <v>1377586</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="7">
-        <v>763</v>
-      </c>
-      <c r="D7" s="7">
-        <v>813943</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="H7" s="7">
-        <v>1080</v>
-      </c>
-      <c r="I7" s="7">
-        <v>858118</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="M7" s="7">
-        <v>1843</v>
-      </c>
-      <c r="N7" s="7">
-        <v>1672060</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q7" s="7" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="7">
-        <v>1228</v>
-      </c>
-      <c r="D8" s="7">
-        <v>1347002</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="H8" s="7">
-        <v>1840</v>
-      </c>
-      <c r="I8" s="7">
-        <v>1390732</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="M8" s="7">
-        <v>3068</v>
-      </c>
-      <c r="N8" s="7">
-        <v>2737734</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="7">
-        <v>1991</v>
-      </c>
-      <c r="D9" s="7">
-        <v>2160945</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="7">
-        <v>2920</v>
-      </c>
-      <c r="I9" s="7">
-        <v>2248850</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M9" s="7">
-        <v>4911</v>
-      </c>
-      <c r="N9" s="7">
-        <v>4409794</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="7">
-        <v>243</v>
-      </c>
-      <c r="D10" s="7">
-        <v>239402</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="H10" s="7">
-        <v>336</v>
-      </c>
-      <c r="I10" s="7">
-        <v>244414</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="M10" s="7">
-        <v>579</v>
-      </c>
-      <c r="N10" s="7">
-        <v>483816</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="7">
-        <v>436</v>
-      </c>
-      <c r="D11" s="7">
-        <v>432586</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H11" s="7">
-        <v>665</v>
-      </c>
-      <c r="I11" s="7">
-        <v>467814</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="M11" s="7">
-        <v>1101</v>
-      </c>
-      <c r="N11" s="7">
-        <v>900400</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="7">
-        <v>679</v>
-      </c>
-      <c r="D12" s="7">
-        <v>671988</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="7">
-        <v>1001</v>
-      </c>
-      <c r="I12" s="7">
-        <v>712228</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M12" s="7">
-        <v>1680</v>
-      </c>
-      <c r="N12" s="7">
-        <v>1384216</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="7">
-        <v>1318</v>
-      </c>
-      <c r="D13" s="7">
-        <v>1301145</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="H13" s="7">
-        <v>2065</v>
-      </c>
-      <c r="I13" s="7">
-        <v>1507052</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="M13" s="7">
-        <v>3383</v>
-      </c>
-      <c r="N13" s="7">
-        <v>2808198</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="7">
-        <v>2043</v>
-      </c>
-      <c r="D14" s="7">
-        <v>2073421</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="H14" s="7">
-        <v>3283</v>
-      </c>
-      <c r="I14" s="7">
-        <v>2289978</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="M14" s="7">
-        <v>5326</v>
-      </c>
-      <c r="N14" s="7">
-        <v>4363399</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="7">
-        <v>3361</v>
-      </c>
-      <c r="D15" s="7">
-        <v>3374566</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="7">
-        <v>5348</v>
-      </c>
-      <c r="I15" s="7">
-        <v>3797030</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M15" s="7">
-        <v>8709</v>
-      </c>
-      <c r="N15" s="7">
-        <v>7171597</v>
-      </c>
-      <c r="O15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
